--- a/target/test-classes/testdata/VehicleRegistration.xlsx
+++ b/target/test-classes/testdata/VehicleRegistration.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
